--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H2">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.546185</v>
+        <v>3.319447</v>
       </c>
       <c r="N2">
-        <v>19.638555</v>
+        <v>9.958341000000001</v>
       </c>
       <c r="O2">
-        <v>0.06829436374455893</v>
+        <v>0.03276237985858125</v>
       </c>
       <c r="P2">
-        <v>0.06829436374455891</v>
+        <v>0.03276237985858125</v>
       </c>
       <c r="Q2">
-        <v>133.0722801124533</v>
+        <v>84.17919310365868</v>
       </c>
       <c r="R2">
-        <v>1197.65052101208</v>
+        <v>757.6127379329281</v>
       </c>
       <c r="S2">
-        <v>0.0002856000955294863</v>
+        <v>0.0001699267906860653</v>
       </c>
       <c r="T2">
-        <v>0.0002856000955294863</v>
+        <v>0.0001699267906860653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H3">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>213.10321</v>
       </c>
       <c r="O3">
-        <v>0.7410803971510699</v>
+        <v>0.7010975337260504</v>
       </c>
       <c r="P3">
-        <v>0.7410803971510697</v>
+        <v>0.7010975337260504</v>
       </c>
       <c r="Q3">
-        <v>1444.002883816196</v>
+        <v>1801.390037316409</v>
       </c>
       <c r="R3">
-        <v>12996.02595434576</v>
+        <v>16212.51033584768</v>
       </c>
       <c r="S3">
-        <v>0.003099122981993339</v>
+        <v>0.003636343097730699</v>
       </c>
       <c r="T3">
-        <v>0.003099122981993338</v>
+        <v>0.003636343097730698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H4">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.965059</v>
+        <v>26.57769466666667</v>
       </c>
       <c r="N4">
-        <v>53.895177</v>
+        <v>79.73308400000001</v>
       </c>
       <c r="O4">
-        <v>0.1874240147564516</v>
+        <v>0.262317346363633</v>
       </c>
       <c r="P4">
-        <v>0.1874240147564515</v>
+        <v>0.262317346363633</v>
       </c>
       <c r="Q4">
-        <v>365.197647711568</v>
+        <v>673.9944610037193</v>
       </c>
       <c r="R4">
-        <v>3286.778829404112</v>
+        <v>6065.950149033472</v>
       </c>
       <c r="S4">
-        <v>0.0007837882013100545</v>
+        <v>0.001360546608679344</v>
       </c>
       <c r="T4">
-        <v>0.0007837882013100542</v>
+        <v>0.001360546608679343</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H5">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3068453333333334</v>
+        <v>0.3873156666666667</v>
       </c>
       <c r="N5">
-        <v>0.920536</v>
+        <v>1.161947</v>
       </c>
       <c r="O5">
-        <v>0.003201224347919758</v>
+        <v>0.003822740051735415</v>
       </c>
       <c r="P5">
-        <v>0.003201224347919757</v>
+        <v>0.003822740051735415</v>
       </c>
       <c r="Q5">
-        <v>6.237619032846222</v>
+        <v>9.822093950108444</v>
       </c>
       <c r="R5">
-        <v>56.138571295616</v>
+        <v>88.39884555097601</v>
       </c>
       <c r="S5">
-        <v>1.338719521565264E-05</v>
+        <v>1.982719055887939E-05</v>
       </c>
       <c r="T5">
-        <v>1.338719521565264E-05</v>
+        <v>1.982719055887939E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J6">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.546185</v>
+        <v>3.319447</v>
       </c>
       <c r="N6">
-        <v>19.638555</v>
+        <v>9.958341000000001</v>
       </c>
       <c r="O6">
-        <v>0.06829436374455893</v>
+        <v>0.03276237985858125</v>
       </c>
       <c r="P6">
-        <v>0.06829436374455891</v>
+        <v>0.03276237985858125</v>
       </c>
       <c r="Q6">
-        <v>31486.47115026745</v>
+        <v>15966.19591416097</v>
       </c>
       <c r="R6">
-        <v>283378.240352407</v>
+        <v>143695.7632274487</v>
       </c>
       <c r="S6">
-        <v>0.06757635144452033</v>
+        <v>0.0322298697709948</v>
       </c>
       <c r="T6">
-        <v>0.06757635144452032</v>
+        <v>0.0322298697709948</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J7">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>213.10321</v>
       </c>
       <c r="O7">
-        <v>0.7410803971510699</v>
+        <v>0.7010975337260504</v>
       </c>
       <c r="P7">
-        <v>0.7410803971510697</v>
+        <v>0.7010975337260504</v>
       </c>
       <c r="Q7">
         <v>341668.1152811084</v>
@@ -883,10 +883,10 @@
         <v>3075013.037529975</v>
       </c>
       <c r="S7">
-        <v>0.7332890537473568</v>
+        <v>0.6897021005889392</v>
       </c>
       <c r="T7">
-        <v>0.7332890537473565</v>
+        <v>0.6897021005889391</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J8">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.965059</v>
+        <v>26.57769466666667</v>
       </c>
       <c r="N8">
-        <v>53.895177</v>
+        <v>79.73308400000001</v>
       </c>
       <c r="O8">
-        <v>0.1874240147564516</v>
+        <v>0.262317346363633</v>
       </c>
       <c r="P8">
-        <v>0.1874240147564515</v>
+        <v>0.262317346363633</v>
       </c>
       <c r="Q8">
-        <v>86410.0711966363</v>
+        <v>127835.9558067206</v>
       </c>
       <c r="R8">
-        <v>777690.6407697267</v>
+        <v>1150523.602260485</v>
       </c>
       <c r="S8">
-        <v>0.1854535337307979</v>
+        <v>0.258053717357117</v>
       </c>
       <c r="T8">
-        <v>0.1854535337307978</v>
+        <v>0.2580537173571169</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J9">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3068453333333334</v>
+        <v>0.3873156666666667</v>
       </c>
       <c r="N9">
-        <v>0.920536</v>
+        <v>1.161947</v>
       </c>
       <c r="O9">
-        <v>0.003201224347919758</v>
+        <v>0.003822740051735415</v>
       </c>
       <c r="P9">
-        <v>0.003201224347919757</v>
+        <v>0.003822740051735415</v>
       </c>
       <c r="Q9">
-        <v>1475.894240018301</v>
+        <v>1862.948200294768</v>
       </c>
       <c r="R9">
-        <v>13283.0481601647</v>
+        <v>16766.53380265291</v>
       </c>
       <c r="S9">
-        <v>0.003167568298855642</v>
+        <v>0.00376060635911123</v>
       </c>
       <c r="T9">
-        <v>0.003167568298855642</v>
+        <v>0.00376060635911123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H10">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.546185</v>
+        <v>3.319447</v>
       </c>
       <c r="N10">
-        <v>19.638555</v>
+        <v>9.958341000000001</v>
       </c>
       <c r="O10">
-        <v>0.06829436374455893</v>
+        <v>0.03276237985858125</v>
       </c>
       <c r="P10">
-        <v>0.06829436374455891</v>
+        <v>0.03276237985858125</v>
       </c>
       <c r="Q10">
-        <v>183.8354354165367</v>
+        <v>170.1980148828587</v>
       </c>
       <c r="R10">
-        <v>1654.51891874883</v>
+        <v>1531.782133945728</v>
       </c>
       <c r="S10">
-        <v>0.0003945481198060132</v>
+        <v>0.0003435671141985127</v>
       </c>
       <c r="T10">
-        <v>0.0003945481198060131</v>
+        <v>0.0003435671141985127</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H11">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>213.10321</v>
       </c>
       <c r="O11">
-        <v>0.7410803971510699</v>
+        <v>0.7010975337260504</v>
       </c>
       <c r="P11">
-        <v>0.7410803971510697</v>
+        <v>0.7010975337260504</v>
       </c>
       <c r="Q11">
-        <v>1994.847451811585</v>
+        <v>3642.147151535076</v>
       </c>
       <c r="R11">
-        <v>17953.62706630426</v>
+        <v>32779.32436381569</v>
       </c>
       <c r="S11">
-        <v>0.004281347116940427</v>
+        <v>0.007352153826238691</v>
       </c>
       <c r="T11">
-        <v>0.004281347116940426</v>
+        <v>0.007352153826238691</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H12">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.965059</v>
+        <v>26.57769466666667</v>
       </c>
       <c r="N12">
-        <v>53.895177</v>
+        <v>79.73308400000001</v>
       </c>
       <c r="O12">
-        <v>0.1874240147564516</v>
+        <v>0.262317346363633</v>
       </c>
       <c r="P12">
-        <v>0.1874240147564515</v>
+        <v>0.262317346363633</v>
       </c>
       <c r="Q12">
-        <v>504.509793650618</v>
+        <v>1362.718209517853</v>
       </c>
       <c r="R12">
-        <v>4540.588142855562</v>
+        <v>12264.46388566067</v>
       </c>
       <c r="S12">
-        <v>0.001082780314130153</v>
+        <v>0.002750826224571704</v>
       </c>
       <c r="T12">
-        <v>0.001082780314130153</v>
+        <v>0.002750826224571704</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H13">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3068453333333334</v>
+        <v>0.3873156666666667</v>
       </c>
       <c r="N13">
-        <v>0.920536</v>
+        <v>1.161947</v>
       </c>
       <c r="O13">
-        <v>0.003201224347919758</v>
+        <v>0.003822740051735415</v>
       </c>
       <c r="P13">
-        <v>0.003201224347919757</v>
+        <v>0.003822740051735415</v>
       </c>
       <c r="Q13">
-        <v>8.617086968801779</v>
+        <v>19.85883720984178</v>
       </c>
       <c r="R13">
-        <v>77.55378271921599</v>
+        <v>178.729534888576</v>
       </c>
       <c r="S13">
-        <v>1.849401587915955E-05</v>
+        <v>4.008767902621724E-05</v>
       </c>
       <c r="T13">
-        <v>1.849401587915955E-05</v>
+        <v>4.008767902621724E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H14">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.546185</v>
+        <v>3.319447</v>
       </c>
       <c r="N14">
-        <v>19.638555</v>
+        <v>9.958341000000001</v>
       </c>
       <c r="O14">
-        <v>0.06829436374455893</v>
+        <v>0.03276237985858125</v>
       </c>
       <c r="P14">
-        <v>0.06829436374455891</v>
+        <v>0.03276237985858125</v>
       </c>
       <c r="Q14">
-        <v>17.6423613461</v>
+        <v>9.420332775616334</v>
       </c>
       <c r="R14">
-        <v>158.7812521149</v>
+        <v>84.782994980547</v>
       </c>
       <c r="S14">
-        <v>3.786408470309471E-05</v>
+        <v>1.901618270187082E-05</v>
       </c>
       <c r="T14">
-        <v>3.78640847030947E-05</v>
+        <v>1.901618270187082E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H15">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>213.10321</v>
       </c>
       <c r="O15">
-        <v>0.7410803971510699</v>
+        <v>0.7010975337260504</v>
       </c>
       <c r="P15">
-        <v>0.7410803971510697</v>
+        <v>0.7010975337260504</v>
       </c>
       <c r="Q15">
-        <v>191.4419790475334</v>
+        <v>201.5901196546745</v>
       </c>
       <c r="R15">
-        <v>1722.9778114278</v>
+        <v>1814.31107689207</v>
       </c>
       <c r="S15">
-        <v>0.0004108733047793679</v>
+        <v>0.0004069362131418421</v>
       </c>
       <c r="T15">
-        <v>0.0004108733047793678</v>
+        <v>0.000406936213141842</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H16">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.965059</v>
+        <v>26.57769466666667</v>
       </c>
       <c r="N16">
-        <v>53.895177</v>
+        <v>79.73308400000001</v>
       </c>
       <c r="O16">
-        <v>0.1874240147564516</v>
+        <v>0.262317346363633</v>
       </c>
       <c r="P16">
-        <v>0.1874240147564515</v>
+        <v>0.262317346363633</v>
       </c>
       <c r="Q16">
-        <v>48.41691190854</v>
+        <v>75.42543326304757</v>
       </c>
       <c r="R16">
-        <v>435.7522071768601</v>
+        <v>678.828899367428</v>
       </c>
       <c r="S16">
-        <v>0.0001039125102135204</v>
+        <v>0.0001522561732649658</v>
       </c>
       <c r="T16">
-        <v>0.0001039125102135203</v>
+        <v>0.0001522561732649658</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H17">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3068453333333334</v>
+        <v>0.3873156666666667</v>
       </c>
       <c r="N17">
-        <v>0.920536</v>
+        <v>1.161947</v>
       </c>
       <c r="O17">
-        <v>0.003201224347919758</v>
+        <v>0.003822740051735415</v>
       </c>
       <c r="P17">
-        <v>0.003201224347919757</v>
+        <v>0.003822740051735415</v>
       </c>
       <c r="Q17">
-        <v>0.8269665840533335</v>
+        <v>1.099171780483222</v>
       </c>
       <c r="R17">
-        <v>7.442699256480001</v>
+        <v>9.892546024349</v>
       </c>
       <c r="S17">
-        <v>1.774837969303138E-06</v>
+        <v>2.218823039087604E-06</v>
       </c>
       <c r="T17">
-        <v>1.774837969303138E-06</v>
+        <v>2.218823039087604E-06</v>
       </c>
     </row>
   </sheetData>
